--- a/score&rmse.xlsx
+++ b/score&rmse.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svlsrao\Documents\wednesday-hack\RentalProperty-prediction-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\hack\Friday-Hack\RentalProperty-prediction-main\RentalProperty-prediction-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3349D250-9A19-4AB8-84FA-2B6A8A807B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="1548" windowWidth="13488" windowHeight="7812" xr2:uid="{7F220003-6270-4A6E-B477-5A4389C37F4D}"/>
+    <workbookView xWindow="9540" yWindow="1545" windowWidth="13485" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>With out hot encoding</t>
   </si>
@@ -70,13 +69,52 @@
   </si>
   <si>
     <t xml:space="preserve">0&lt;price&lt;10001 </t>
+  </si>
+  <si>
+    <t>After perfoming one hot encoder</t>
+  </si>
+  <si>
+    <t>Hot encoding for room type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3&lt;log(price)&lt;5.7 </t>
+  </si>
+  <si>
+    <t>RMSE-train data</t>
+  </si>
+  <si>
+    <t>Hotencoding for Neighbourhood_group</t>
+  </si>
+  <si>
+    <t>No of independent variables</t>
+  </si>
+  <si>
+    <t>Hot encoding for Neighbour</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>host_id</t>
+  </si>
+  <si>
+    <t>month_of_review</t>
+  </si>
+  <si>
+    <t>year_of_review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotencoding for Neighbourhood </t>
+  </si>
+  <si>
+    <t>No. of reviews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +122,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -244,63 +295,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,552 +744,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD03533-EFA2-4BDC-82B6-E53B4D979696}">
-  <dimension ref="A1:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="16">
         <v>0.40060000000000001</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>60.95</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="21" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="16">
         <v>0.40060000000000001</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="19">
         <v>60.95</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="21" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="16">
         <v>0.3957</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="16">
         <v>60.423000000000002</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="21" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="16">
         <v>0.376</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="16">
         <v>61.417000000000002</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="21" t="s">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="16">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="16">
         <v>69.039599999999993</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="21" t="s">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="16">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="16">
         <v>67.822999999999993</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="21" t="s">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="16">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="16">
         <v>66.619</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="16">
         <v>197.26</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8" t="s">
+      <c r="C39" s="14"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12"/>
+      <c r="B41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="16">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="16">
         <v>191.94</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5" t="s">
+      <c r="C44" s="14"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7"/>
-      <c r="B46" s="8" t="s">
+      <c r="C45" s="14"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="22"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E48" s="16">
+        <v>43.584000000000003</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="7">
+        <v>6</v>
+      </c>
+      <c r="G49" s="26">
+        <v>44.259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12"/>
+      <c r="B52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="E53" s="16">
+        <v>43.259</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="26">
+        <v>43.77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="7">
+        <v>11</v>
+      </c>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="26"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="32">
+        <v>-54170000000000</v>
+      </c>
+      <c r="E58" s="33">
+        <v>43.259</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
+      <c r="B59" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="41">
+        <v>43.77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
+      <c r="B60" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40">
+        <v>228</v>
+      </c>
+      <c r="G60" s="41"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
+      <c r="B61" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="36"/>
+      <c r="B62" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="45"/>
+      <c r="B63" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="49"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E64" s="16">
+        <v>41.392000000000003</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="25"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="20">
+        <v>41.805</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="7">
+        <v>233</v>
+      </c>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
+      <c r="B67" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11"/>
+      <c r="B68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11"/>
+      <c r="B73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="12"/>
+      <c r="B74" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="21"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="16">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E75" s="19">
+        <v>43.11</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="25"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="26">
+        <v>43.542000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="7">
+        <v>16</v>
+      </c>
+      <c r="G77" s="26"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11"/>
+      <c r="B78" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="26"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11"/>
+      <c r="B79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="26"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="26"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="26"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="26"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11"/>
+      <c r="B83" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="26"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="12"/>
+      <c r="B84" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="62">
+    <mergeCell ref="A75:A84"/>
+    <mergeCell ref="C75:C84"/>
+    <mergeCell ref="D75:D84"/>
+    <mergeCell ref="E75:E84"/>
+    <mergeCell ref="G76:G84"/>
+    <mergeCell ref="A64:A74"/>
+    <mergeCell ref="C64:C74"/>
+    <mergeCell ref="D64:D74"/>
+    <mergeCell ref="E64:E74"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="C58:C63"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="E32:E36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="C37:C41"/>
     <mergeCell ref="D37:D41"/>
@@ -1168,35 +1895,6 @@
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="D42:D46"/>
     <mergeCell ref="E42:E46"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
